--- a/data/case1/11/details_2.xlsx
+++ b/data/case1/11/details_2.xlsx
@@ -58,13 +58,13 @@
   <cols>
     <col min="1" max="1" width="2.140625" customWidth="true"/>
     <col min="2" max="2" width="2.140625" customWidth="true"/>
-    <col min="3" max="3" width="3.140625" customWidth="true"/>
-    <col min="4" max="4" width="2.140625" customWidth="true"/>
-    <col min="5" max="5" width="3.140625" customWidth="true"/>
+    <col min="3" max="3" width="2.140625" customWidth="true"/>
+    <col min="4" max="4" width="3.140625" customWidth="true"/>
+    <col min="5" max="5" width="2.140625" customWidth="true"/>
     <col min="6" max="6" width="3.140625" customWidth="true"/>
     <col min="7" max="7" width="3.140625" customWidth="true"/>
     <col min="8" max="8" width="3.140625" customWidth="true"/>
-    <col min="9" max="9" width="2.140625" customWidth="true"/>
+    <col min="9" max="9" width="3.140625" customWidth="true"/>
     <col min="10" max="10" width="3.140625" customWidth="true"/>
     <col min="11" max="11" width="5.7109375" customWidth="true"/>
     <col min="12" max="12" width="5.7109375" customWidth="true"/>
@@ -80,40 +80,40 @@
         <v>4</v>
       </c>
       <c r="C1" s="0">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" s="0">
+        <v>8</v>
+      </c>
+      <c r="F1" s="0">
+        <v>31</v>
+      </c>
+      <c r="G1" s="0">
+        <v>12</v>
+      </c>
+      <c r="H1" s="0">
         <v>19</v>
       </c>
-      <c r="F1" s="0">
-        <v>29</v>
-      </c>
-      <c r="G1" s="0">
-        <v>14</v>
-      </c>
-      <c r="H1" s="0">
-        <v>22</v>
-      </c>
       <c r="I1" s="0">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K1" s="0">
-        <v>0.062</v>
+        <v>0.097000000000000003</v>
       </c>
       <c r="L1" s="0">
-        <v>0.035999999999999997</v>
+        <v>0.024</v>
       </c>
       <c r="M1" s="0">
-        <v>0.092999999999999999</v>
+        <v>0.054000000000000006</v>
       </c>
       <c r="N1" s="0">
-        <v>0.096000000000000002</v>
+        <v>0.094</v>
       </c>
     </row>
   </sheetData>
